--- a/trend_results/Lakes/LakeHerbert_2f9facd890.xlsx
+++ b/trend_results/Lakes/LakeHerbert_2f9facd890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
   <si>
     <t>site name</t>
   </si>
@@ -118,9 +118,6 @@
     <t>WARNING: Sen slope based on two censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on tied non-censored values</t>
-  </si>
-  <si>
     <t>Lake</t>
   </si>
   <si>
@@ -130,19 +127,16 @@
     <t>As likely as not improving</t>
   </si>
   <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Very unlikely improving</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Very likely improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
   </si>
   <si>
     <t>Rangitikei District</t>
@@ -524,7 +518,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:W13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -618,37 +612,37 @@
         <v>31</v>
       </c>
       <c r="F2">
-        <v>0.807204240614373</v>
+        <v>0.801908609138178</v>
       </c>
       <c r="G2">
-        <v>0.259259259259259</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="H2">
-        <v>0.518518518518518</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K2">
-        <v>-0.330542986425339</v>
+        <v>-0.0988393993771533</v>
       </c>
       <c r="L2">
-        <v>-1.20202396581564</v>
+        <v>-0.81188773921223</v>
       </c>
       <c r="M2">
-        <v>0.125448869220929</v>
+        <v>0.08576430133699491</v>
       </c>
       <c r="N2">
-        <v>-10.6626769814626</v>
+        <v>-3.40825515093632</v>
       </c>
       <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="s">
         <v>35</v>
-      </c>
-      <c r="P2" t="s">
-        <v>36</v>
       </c>
       <c r="Q2">
         <v>1795903.22607</v>
@@ -657,19 +651,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S2" t="s">
+        <v>41</v>
+      </c>
+      <c r="T2" t="s">
+        <v>42</v>
+      </c>
+      <c r="U2" t="s">
         <v>43</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>44</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>45</v>
-      </c>
-      <c r="V2" t="s">
-        <v>46</v>
-      </c>
-      <c r="W2" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -689,34 +683,34 @@
         <v>32</v>
       </c>
       <c r="F3">
-        <v>0.739080304833192</v>
+        <v>0.623032920574271</v>
       </c>
       <c r="G3">
-        <v>0.107142857142857</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H3">
-        <v>0.428571428571429</v>
+        <v>0.470588235294118</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>12</v>
+        <v>14.4</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>-5.44506346857942</v>
+        <v>-3.5656783103846</v>
       </c>
       <c r="M3">
-        <v>1.86482473439383</v>
+        <v>2.64225483728628</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P3" t="s">
         <v>36</v>
@@ -728,19 +722,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S3" t="s">
+        <v>41</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
         <v>43</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>44</v>
       </c>
-      <c r="U3" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>46</v>
-      </c>
-      <c r="W3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -760,7 +754,7 @@
         <v>31</v>
       </c>
       <c r="F4">
-        <v>0.698779156978808</v>
+        <v>0.794234924455368</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -772,25 +766,25 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.0163422232677993</v>
+        <v>0.0158717586193532</v>
       </c>
       <c r="K4">
-        <v>-0.0020155662874038</v>
+        <v>-0.0018238002470684</v>
       </c>
       <c r="L4">
-        <v>-0.0110540826726706</v>
+        <v>-0.0058189884933885</v>
       </c>
       <c r="M4">
-        <v>0.0034633428790461</v>
+        <v>0.0024946701637378</v>
       </c>
       <c r="N4">
-        <v>-12.3334888673033</v>
+        <v>-11.4908517122017</v>
       </c>
       <c r="O4" t="s">
+        <v>34</v>
+      </c>
+      <c r="P4" t="s">
         <v>35</v>
-      </c>
-      <c r="P4" t="s">
-        <v>36</v>
       </c>
       <c r="Q4">
         <v>1795903.22607</v>
@@ -799,19 +793,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>42</v>
+      </c>
+      <c r="U4" t="s">
         <v>43</v>
       </c>
-      <c r="T4" t="s">
+      <c r="V4" t="s">
         <v>44</v>
       </c>
-      <c r="U4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V4" t="s">
-        <v>46</v>
-      </c>
       <c r="W4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -831,37 +825,37 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>0.590817709212343</v>
+        <v>0.487128103637044</v>
       </c>
       <c r="G5">
-        <v>0.428571428571429</v>
+        <v>0.5</v>
       </c>
       <c r="H5">
-        <v>0.571428571428571</v>
+        <v>0.5</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.008</v>
+        <v>0.00375</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>-0.0029567170947607</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0006787196419970999</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q5">
         <v>1795903.22607</v>
@@ -870,19 +864,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S5" t="s">
+        <v>41</v>
+      </c>
+      <c r="T5" t="s">
+        <v>42</v>
+      </c>
+      <c r="U5" t="s">
         <v>43</v>
       </c>
-      <c r="T5" t="s">
+      <c r="V5" t="s">
         <v>44</v>
       </c>
-      <c r="U5" t="s">
-        <v>45</v>
-      </c>
-      <c r="V5" t="s">
-        <v>46</v>
-      </c>
       <c r="W5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -902,37 +896,37 @@
         <v>31</v>
       </c>
       <c r="F6">
-        <v>0.0005782908388639</v>
+        <v>0.267677971154908</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.64</v>
+        <v>7.71</v>
       </c>
       <c r="K6">
-        <v>-0.36580810126146</v>
+        <v>-0.0458650388140049</v>
       </c>
       <c r="L6">
-        <v>-0.469399955296658</v>
+        <v>-0.16831797235023</v>
       </c>
       <c r="M6">
-        <v>-0.218656271310125</v>
+        <v>0.0754406063778644</v>
       </c>
       <c r="N6">
-        <v>-4.78806415263691</v>
+        <v>-0.594877286822372</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="Q6">
         <v>1795903.22607</v>
@@ -941,16 +935,16 @@
         <v>5554643.96611</v>
       </c>
       <c r="S6" t="s">
+        <v>41</v>
+      </c>
+      <c r="T6" t="s">
+        <v>42</v>
+      </c>
+      <c r="U6" t="s">
         <v>43</v>
       </c>
-      <c r="T6" t="s">
+      <c r="V6" t="s">
         <v>44</v>
-      </c>
-      <c r="U6" t="s">
-        <v>45</v>
-      </c>
-      <c r="V6" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -970,37 +964,37 @@
         <v>31</v>
       </c>
       <c r="F7">
-        <v>0.09936514612668861</v>
+        <v>0.281430057179159</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.857142857142857</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.995</v>
+        <v>0.975</v>
       </c>
       <c r="K7">
-        <v>0.0370048000768012</v>
+        <v>0.0184005037783375</v>
       </c>
       <c r="L7">
-        <v>-0.0162892392765571</v>
+        <v>-0.0253420210415593</v>
       </c>
       <c r="M7">
-        <v>0.0844174426681718</v>
+        <v>0.0724787759511203</v>
       </c>
       <c r="N7">
-        <v>3.71907538460314</v>
+        <v>1.88723115675257</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q7">
         <v>1795903.22607</v>
@@ -1009,19 +1003,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S7" t="s">
+        <v>41</v>
+      </c>
+      <c r="T7" t="s">
+        <v>42</v>
+      </c>
+      <c r="U7" t="s">
         <v>43</v>
       </c>
-      <c r="T7" t="s">
+      <c r="V7" t="s">
         <v>44</v>
       </c>
-      <c r="U7" t="s">
-        <v>45</v>
-      </c>
-      <c r="V7" t="s">
-        <v>46</v>
-      </c>
       <c r="W7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1041,37 +1035,37 @@
         <v>31</v>
       </c>
       <c r="F8">
-        <v>0.95358129785892</v>
+        <v>0.992508985381906</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.857142857142857</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.047</v>
+        <v>0.045</v>
       </c>
       <c r="K8">
-        <v>-0.0058508197136531</v>
+        <v>-0.0063773809523809</v>
       </c>
       <c r="L8">
-        <v>-0.0148012144366208</v>
+        <v>-0.0120387263061593</v>
       </c>
       <c r="M8">
-        <v>-0.000185206611297</v>
+        <v>-0.001648888914965</v>
       </c>
       <c r="N8">
-        <v>-12.4485525822407</v>
+        <v>-14.1719576719577</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q8">
         <v>1795903.22607</v>
@@ -1080,19 +1074,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T8" t="s">
+        <v>42</v>
+      </c>
+      <c r="U8" t="s">
         <v>43</v>
       </c>
-      <c r="T8" t="s">
+      <c r="V8" t="s">
         <v>44</v>
       </c>
-      <c r="U8" t="s">
-        <v>45</v>
-      </c>
-      <c r="V8" t="s">
-        <v>46</v>
-      </c>
       <c r="W8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1112,37 +1106,37 @@
         <v>31</v>
       </c>
       <c r="F9">
-        <v>0.940198012544195</v>
+        <v>0.929068472814223</v>
       </c>
       <c r="G9">
-        <v>0.256410256410256</v>
+        <v>0.26530612244898</v>
       </c>
       <c r="H9">
-        <v>0.538461538461538</v>
+        <v>0.469387755102041</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="K9">
-        <v>-0.511049382716049</v>
+        <v>-0.24665551288806</v>
       </c>
       <c r="L9">
-        <v>-1.53877395560283</v>
+        <v>-0.901654078709565</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>-14.1958161865569</v>
+        <v>-7.95662944800195</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q9">
         <v>1795903.22607</v>
@@ -1151,19 +1145,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S9" t="s">
+        <v>41</v>
+      </c>
+      <c r="T9" t="s">
+        <v>42</v>
+      </c>
+      <c r="U9" t="s">
         <v>43</v>
       </c>
-      <c r="T9" t="s">
+      <c r="V9" t="s">
         <v>44</v>
       </c>
-      <c r="U9" t="s">
+      <c r="W9" t="s">
         <v>45</v>
-      </c>
-      <c r="V9" t="s">
-        <v>46</v>
-      </c>
-      <c r="W9" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1171,7 +1165,7 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C10">
         <v>10</v>
@@ -1183,37 +1177,37 @@
         <v>32</v>
       </c>
       <c r="F10">
-        <v>0.504935756618571</v>
+        <v>0.547712817996077</v>
       </c>
       <c r="G10">
-        <v>0.45</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="H10">
-        <v>0.525</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.006</v>
+        <v>12.4</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-1.04105884446395</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.852796095859539</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q10">
         <v>1795903.22607</v>
@@ -1222,19 +1216,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S10" t="s">
+        <v>41</v>
+      </c>
+      <c r="T10" t="s">
+        <v>42</v>
+      </c>
+      <c r="U10" t="s">
         <v>43</v>
       </c>
-      <c r="T10" t="s">
+      <c r="V10" t="s">
         <v>44</v>
       </c>
-      <c r="U10" t="s">
-        <v>45</v>
-      </c>
-      <c r="V10" t="s">
+      <c r="W10" t="s">
         <v>46</v>
-      </c>
-      <c r="W10" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1242,7 +1236,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1251,40 +1245,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>0.5887750432497481</v>
+      </c>
+      <c r="G11">
+        <v>0.48</v>
+      </c>
+      <c r="H11">
+        <v>0.5</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>0.0055</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
         <v>34</v>
       </c>
-      <c r="F11">
-        <v>0.509298494940738</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0.875</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>1.02</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>-0.0342353100797786</v>
-      </c>
-      <c r="M11">
-        <v>0.0284159466865886</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11" t="s">
-        <v>35</v>
-      </c>
       <c r="P11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="Q11">
         <v>1795903.22607</v>
@@ -1293,19 +1287,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S11" t="s">
+        <v>41</v>
+      </c>
+      <c r="T11" t="s">
+        <v>42</v>
+      </c>
+      <c r="U11" t="s">
         <v>43</v>
       </c>
-      <c r="T11" t="s">
+      <c r="V11" t="s">
         <v>44</v>
       </c>
-      <c r="U11" t="s">
-        <v>45</v>
-      </c>
-      <c r="V11" t="s">
-        <v>46</v>
-      </c>
       <c r="W11" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1313,7 +1307,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1325,7 +1319,7 @@
         <v>31</v>
       </c>
       <c r="F12">
-        <v>0.997614049909455</v>
+        <v>0.758939096566044</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1337,25 +1331,25 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0505</v>
+        <v>0.995</v>
       </c>
       <c r="K12">
-        <v>-0.0046567422007522</v>
+        <v>-0.0129674556213018</v>
       </c>
       <c r="L12">
-        <v>-0.0073780363593454</v>
+        <v>-0.0371737230171933</v>
       </c>
       <c r="M12">
-        <v>-0.0015982546646319</v>
+        <v>0.0149835555762912</v>
       </c>
       <c r="N12">
-        <v>-9.22127168465796</v>
+        <v>-1.30326187148761</v>
       </c>
       <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="P12" t="s">
         <v>35</v>
-      </c>
-      <c r="P12" t="s">
-        <v>42</v>
       </c>
       <c r="Q12">
         <v>1795903.22607</v>
@@ -1364,19 +1358,90 @@
         <v>5554643.96611</v>
       </c>
       <c r="S12" t="s">
+        <v>41</v>
+      </c>
+      <c r="T12" t="s">
+        <v>42</v>
+      </c>
+      <c r="U12" t="s">
         <v>43</v>
       </c>
-      <c r="T12" t="s">
+      <c r="V12" t="s">
         <v>44</v>
       </c>
-      <c r="U12" t="s">
-        <v>45</v>
-      </c>
-      <c r="V12" t="s">
-        <v>46</v>
-      </c>
       <c r="W12" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>10</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>0.999787020006652</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0.0475</v>
+      </c>
+      <c r="K13">
+        <v>-0.0045132391879964</v>
+      </c>
+      <c r="L13">
+        <v>-0.0068185991504659</v>
+      </c>
+      <c r="M13">
+        <v>-0.0019872788748982</v>
+      </c>
+      <c r="N13">
+        <v>-9.50155618525573</v>
+      </c>
+      <c r="O13" t="s">
+        <v>34</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13">
+        <v>1795903.22607</v>
+      </c>
+      <c r="R13">
+        <v>5554643.96611</v>
+      </c>
+      <c r="S13" t="s">
+        <v>41</v>
+      </c>
+      <c r="T13" t="s">
+        <v>42</v>
+      </c>
+      <c r="U13" t="s">
+        <v>43</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/trend_results/Lakes/LakeHerbert_2f9facd890.xlsx
+++ b/trend_results/Lakes/LakeHerbert_2f9facd890.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="52">
   <si>
     <t>site name</t>
   </si>
@@ -88,6 +88,9 @@
     <t>Lake Herbert</t>
   </si>
   <si>
+    <t>Cyanobacteria Biovolume</t>
+  </si>
+  <si>
     <t>Chlorophyll A</t>
   </si>
   <si>
@@ -109,6 +112,9 @@
     <t>Total Phosphorus</t>
   </si>
   <si>
+    <t>WARNING: Sen slope based on tied non-censored values</t>
+  </si>
+  <si>
     <t>ok</t>
   </si>
   <si>
@@ -121,12 +127,12 @@
     <t>Lake</t>
   </si>
   <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
     <t>Unlikely increasing</t>
   </si>
   <si>
@@ -149,6 +155,9 @@
   </si>
   <si>
     <t>West_5</t>
+  </si>
+  <si>
+    <t>mg chl-a /m3</t>
   </si>
   <si>
     <t>mg/m2</t>
@@ -518,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W13"/>
+  <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -609,40 +618,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>0.801908609138178</v>
+        <v>0.5296160660689671</v>
       </c>
       <c r="G2">
-        <v>0.242424242424242</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>0.484848484848485</v>
+        <v>0.764705882352941</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.9</v>
+        <v>0.0014</v>
       </c>
       <c r="K2">
-        <v>-0.0988393993771533</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>-0.81188773921223</v>
+        <v>-0.0005310694553646</v>
       </c>
       <c r="M2">
-        <v>0.08576430133699491</v>
+        <v>0.0005460684030609</v>
       </c>
       <c r="N2">
-        <v>-3.40825515093632</v>
+        <v>0</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q2">
         <v>1795903.22607</v>
@@ -651,19 +660,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -680,40 +689,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3">
-        <v>0.623032920574271</v>
+        <v>0.801908609138178</v>
       </c>
       <c r="G3">
-        <v>0.117647058823529</v>
+        <v>0.242424242424242</v>
       </c>
       <c r="H3">
-        <v>0.470588235294118</v>
+        <v>0.484848484848485</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>14.4</v>
+        <v>2.9</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>-0.0988393993771533</v>
       </c>
       <c r="L3">
-        <v>-3.5656783103846</v>
+        <v>-0.81188773921223</v>
       </c>
       <c r="M3">
-        <v>2.64225483728628</v>
+        <v>0.08576430133699491</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>-3.40825515093632</v>
       </c>
       <c r="O3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q3">
         <v>1795903.22607</v>
@@ -722,19 +731,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V3" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -751,40 +760,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F4">
-        <v>0.794234924455368</v>
+        <v>0.623032920574271</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.117647058823529</v>
       </c>
       <c r="H4">
+        <v>0.470588235294118</v>
+      </c>
+      <c r="I4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
-        <v>0.0158717586193532</v>
+        <v>14.4</v>
       </c>
       <c r="K4">
-        <v>-0.0018238002470684</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>-0.0058189884933885</v>
+        <v>-3.5656783103846</v>
       </c>
       <c r="M4">
-        <v>0.0024946701637378</v>
+        <v>2.64225483728628</v>
       </c>
       <c r="N4">
-        <v>-11.4908517122017</v>
+        <v>0</v>
       </c>
       <c r="O4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q4">
         <v>1795903.22607</v>
@@ -793,19 +802,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -825,37 +834,37 @@
         <v>33</v>
       </c>
       <c r="F5">
-        <v>0.487128103637044</v>
+        <v>0.794234924455368</v>
       </c>
       <c r="G5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0.00375</v>
+        <v>0.0158717586193532</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>-0.0018238002470684</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-0.0058189884933885</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.0024946701637378</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>-11.4908517122017</v>
       </c>
       <c r="O5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="Q5">
         <v>1795903.22607</v>
@@ -864,19 +873,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W5" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -893,37 +902,37 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F6">
-        <v>0.267677971154908</v>
+        <v>0.487128103637044</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="H6">
-        <v>0.9696969696969699</v>
+        <v>0.5</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>7.71</v>
+        <v>0.00375</v>
       </c>
       <c r="K6">
-        <v>-0.0458650388140049</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>-0.16831797235023</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0.0754406063778644</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>-0.594877286822372</v>
+        <v>0</v>
       </c>
       <c r="O6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P6" t="s">
         <v>37</v>
@@ -935,16 +944,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="W6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -961,40 +973,40 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7">
-        <v>0.281430057179159</v>
+        <v>0.267677971154908</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.794117647058823</v>
+        <v>0.9696969696969699</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.975</v>
+        <v>7.71</v>
       </c>
       <c r="K7">
-        <v>0.0184005037783375</v>
+        <v>-0.0458650388140049</v>
       </c>
       <c r="L7">
-        <v>-0.0253420210415593</v>
+        <v>-0.16831797235023</v>
       </c>
       <c r="M7">
-        <v>0.0724787759511203</v>
+        <v>0.0754406063778644</v>
       </c>
       <c r="N7">
-        <v>1.88723115675257</v>
+        <v>-0.594877286822372</v>
       </c>
       <c r="O7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="Q7">
         <v>1795903.22607</v>
@@ -1003,19 +1015,16 @@
         <v>5554643.96611</v>
       </c>
       <c r="S7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
-      </c>
-      <c r="W7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1032,40 +1041,40 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F8">
-        <v>0.992508985381906</v>
+        <v>0.281430057179159</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.823529411764706</v>
+        <v>0.794117647058823</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.045</v>
+        <v>0.975</v>
       </c>
       <c r="K8">
-        <v>-0.0063773809523809</v>
+        <v>0.0184005037783375</v>
       </c>
       <c r="L8">
-        <v>-0.0120387263061593</v>
+        <v>-0.0253420210415593</v>
       </c>
       <c r="M8">
-        <v>-0.001648888914965</v>
+        <v>0.0724787759511203</v>
       </c>
       <c r="N8">
-        <v>-14.1719576719577</v>
+        <v>1.88723115675257</v>
       </c>
       <c r="O8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q8">
         <v>1795903.22607</v>
@@ -1074,19 +1083,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1094,49 +1103,49 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F9">
-        <v>0.929068472814223</v>
+        <v>0.992508985381906</v>
       </c>
       <c r="G9">
-        <v>0.26530612244898</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>0.469387755102041</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>3.1</v>
+        <v>0.045</v>
       </c>
       <c r="K9">
-        <v>-0.24665551288806</v>
+        <v>-0.0063773809523809</v>
       </c>
       <c r="L9">
-        <v>-0.901654078709565</v>
+        <v>-0.0120387263061593</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>-0.001648888914965</v>
       </c>
       <c r="N9">
-        <v>-7.95662944800195</v>
+        <v>-14.1719576719577</v>
       </c>
       <c r="O9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="Q9">
         <v>1795903.22607</v>
@@ -1145,19 +1154,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T9" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1174,40 +1183,40 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F10">
-        <v>0.547712817996077</v>
+        <v>0.929068472814223</v>
       </c>
       <c r="G10">
-        <v>0.106382978723404</v>
+        <v>0.26530612244898</v>
       </c>
       <c r="H10">
-        <v>0.382978723404255</v>
+        <v>0.469387755102041</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>12.4</v>
+        <v>3.1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>-0.24665551288806</v>
       </c>
       <c r="L10">
-        <v>-1.04105884446395</v>
+        <v>-0.901654078709565</v>
       </c>
       <c r="M10">
-        <v>0.852796095859539</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>-7.95662944800195</v>
       </c>
       <c r="O10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P10" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="Q10">
         <v>1795903.22607</v>
@@ -1216,19 +1225,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1236,7 +1245,7 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>10</v>
@@ -1245,40 +1254,40 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F11">
-        <v>0.5887750432497481</v>
+        <v>0.547712817996077</v>
       </c>
       <c r="G11">
-        <v>0.48</v>
+        <v>0.106382978723404</v>
       </c>
       <c r="H11">
-        <v>0.5</v>
+        <v>0.382978723404255</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.0055</v>
+        <v>12.4</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>-1.04105884446395</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.852796095859539</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q11">
         <v>1795903.22607</v>
@@ -1287,19 +1296,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1307,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>10</v>
@@ -1316,40 +1325,40 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F12">
-        <v>0.758939096566044</v>
+        <v>0.5887750432497481</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="H12">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0.995</v>
+        <v>0.0055</v>
       </c>
       <c r="K12">
-        <v>-0.0129674556213018</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>-0.0371737230171933</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0.0149835555762912</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>-1.30326187148761</v>
+        <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q12">
         <v>1795903.22607</v>
@@ -1358,19 +1367,19 @@
         <v>5554643.96611</v>
       </c>
       <c r="S12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="T12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="U12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="W12" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1387,10 +1396,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F13">
-        <v>0.999787020006652</v>
+        <v>0.758939096566044</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1402,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.0475</v>
+        <v>0.995</v>
       </c>
       <c r="K13">
-        <v>-0.0045132391879964</v>
+        <v>-0.0129674556213018</v>
       </c>
       <c r="L13">
-        <v>-0.0068185991504659</v>
+        <v>-0.0371737230171933</v>
       </c>
       <c r="M13">
-        <v>-0.0019872788748982</v>
+        <v>0.0149835555762912</v>
       </c>
       <c r="N13">
-        <v>-9.50155618525573</v>
+        <v>-1.30326187148761</v>
       </c>
       <c r="O13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q13">
         <v>1795903.22607</v>
@@ -1429,19 +1438,90 @@
         <v>5554643.96611</v>
       </c>
       <c r="S13" t="s">
+        <v>43</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>45</v>
+      </c>
+      <c r="V13" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14">
+        <v>10</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14">
+        <v>0.999787020006652</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0.8</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0.0475</v>
+      </c>
+      <c r="K14">
+        <v>-0.0045132391879964</v>
+      </c>
+      <c r="L14">
+        <v>-0.0068185991504659</v>
+      </c>
+      <c r="M14">
+        <v>-0.0019872788748982</v>
+      </c>
+      <c r="N14">
+        <v>-9.50155618525573</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
         <v>41</v>
       </c>
-      <c r="T13" t="s">
-        <v>42</v>
-      </c>
-      <c r="U13" t="s">
+      <c r="Q14">
+        <v>1795903.22607</v>
+      </c>
+      <c r="R14">
+        <v>5554643.96611</v>
+      </c>
+      <c r="S14" t="s">
         <v>43</v>
       </c>
-      <c r="V13" t="s">
+      <c r="T14" t="s">
         <v>44</v>
       </c>
-      <c r="W13" t="s">
-        <v>48</v>
+      <c r="U14" t="s">
+        <v>45</v>
+      </c>
+      <c r="V14" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
